--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_29.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2457975.499841069</v>
+        <v>2454957.909440133</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -662,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>95.47601113260059</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -710,13 +710,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>363.9660712333957</v>
       </c>
     </row>
     <row r="3">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>96.12364998444463</v>
       </c>
       <c r="V4" t="n">
-        <v>127.004412707233</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>2.287273915476826</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>136.8499275618269</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>25.0654596799816</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>99.66075074687571</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>211.1829611305785</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>90.35535684952133</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>99.90187484148937</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,22 +1333,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>100.8234489996242</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1385,7 +1385,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274074</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,10 +1543,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>83.22842250032599</v>
+        <v>67.90088782653709</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,10 +1768,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1822,16 +1822,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>166.2450749839004</v>
       </c>
       <c r="W16" t="n">
-        <v>165.8625091282276</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710089</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229269</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>142.5760797485755</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>53.94831424933993</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,22 +2290,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>123.9678322351804</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>41.6983007991486</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,22 +2527,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>183.1796758467016</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2716,13 +2716,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>15.02228922158428</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>82.18952392706211</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>130.8636020495567</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,16 +2998,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>24.01153903325445</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3193,10 +3193,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>77.07108979875191</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3250,10 +3250,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>32.70075835766986</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>4.765426656861491</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,19 +3472,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>98.54560905530603</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>21.81535788526197</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>57.93408156253791</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -3955,13 +3955,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>40.60147955597508</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4037,7 +4037,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4192,16 +4192,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="Y46" t="n">
-        <v>127.8046845005344</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1472.812633166741</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="C2" t="n">
-        <v>1472.812633166741</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="D2" t="n">
-        <v>1114.546934559991</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E2" t="n">
-        <v>728.7586819617466</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>721.8131812125431</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>303.84937311073</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1859.412473230863</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1859.412473230863</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1859.412473230863</v>
+        <v>942.0724226640064</v>
       </c>
     </row>
     <row r="3">
@@ -4413,16 +4413,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T4" t="n">
-        <v>471.4038777286581</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="U4" t="n">
-        <v>182.2302673832261</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1703.566937845283</v>
+        <v>1919.063478780784</v>
       </c>
       <c r="C5" t="n">
-        <v>1703.566937845283</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.301239238533</v>
+        <v>1191.835263233622</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>806.0470106353781</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T5" t="n">
-        <v>2463.632536170485</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U5" t="n">
-        <v>2463.632536170485</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2463.632536170485</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>2463.632536170485</v>
+        <v>1919.063478780784</v>
       </c>
       <c r="X5" t="n">
-        <v>2090.166777909405</v>
+        <v>1919.063478780784</v>
       </c>
       <c r="Y5" t="n">
-        <v>2090.166777909405</v>
+        <v>1919.063478780784</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4620,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036376</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204935</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.447464661592</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598705</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>247.5125998356232</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>247.5125998356232</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>247.5125998356232</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.712065060056</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.712065060056</v>
       </c>
       <c r="S7" t="n">
-        <v>702.8103380650389</v>
+        <v>698.712065060056</v>
       </c>
       <c r="T7" t="n">
-        <v>475.5021507336406</v>
+        <v>698.712065060056</v>
       </c>
       <c r="U7" t="n">
-        <v>475.5021507336406</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V7" t="n">
-        <v>475.5021507336406</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>475.5021507336406</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X7" t="n">
-        <v>247.5125998356232</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y7" t="n">
-        <v>247.5125998356232</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1172.829108994408</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="C8" t="n">
-        <v>1172.829108994408</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2550.852364326976</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304456</v>
+        <v>2332.217697299039</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304456</v>
+        <v>2078.455911937131</v>
       </c>
       <c r="V8" t="n">
-        <v>2302.336936304456</v>
+        <v>1747.39302459356</v>
       </c>
       <c r="W8" t="n">
-        <v>1949.568281034342</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="X8" t="n">
-        <v>1949.568281034342</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="Y8" t="n">
-        <v>1559.42894905853</v>
+        <v>1394.624369323446</v>
       </c>
     </row>
     <row r="9">
@@ -4872,25 +4872,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598709</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>154.8539665087376</v>
+        <v>257.3478788207</v>
       </c>
       <c r="C10" t="n">
-        <v>154.8539665087376</v>
+        <v>257.3478788207</v>
       </c>
       <c r="D10" t="n">
-        <v>154.8539665087376</v>
+        <v>257.3478788207</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>257.3478788207</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600565</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600565</v>
+        <v>478.1404579642301</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600565</v>
+        <v>478.1404579642301</v>
       </c>
       <c r="U10" t="n">
-        <v>409.5384547146244</v>
+        <v>478.1404579642301</v>
       </c>
       <c r="V10" t="n">
-        <v>154.8539665087376</v>
+        <v>478.1404579642301</v>
       </c>
       <c r="W10" t="n">
-        <v>154.8539665087376</v>
+        <v>478.1404579642301</v>
       </c>
       <c r="X10" t="n">
-        <v>154.8539665087376</v>
+        <v>478.1404579642301</v>
       </c>
       <c r="Y10" t="n">
-        <v>154.8539665087376</v>
+        <v>257.3478788207</v>
       </c>
     </row>
     <row r="11">
@@ -5018,19 +5018,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5039,10 +5039,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5060,7 +5060,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014293</v>
@@ -5121,22 +5121,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M12" t="n">
-        <v>1016.813592216476</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.676219880508</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>412.2823606383756</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
-        <v>412.2823606383756</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D13" t="n">
-        <v>412.2823606383756</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
@@ -5206,7 +5206,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1103.852043398587</v>
+        <v>1430.329515177562</v>
       </c>
       <c r="U13" t="n">
-        <v>814.7234046121455</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="V13" t="n">
-        <v>814.7234046121455</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="W13" t="n">
-        <v>814.7234046121455</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="X13" t="n">
-        <v>814.7234046121455</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="Y13" t="n">
-        <v>593.9308254686154</v>
+        <v>1141.200876391121</v>
       </c>
     </row>
     <row r="14">
@@ -5261,37 +5261,37 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
@@ -5303,7 +5303,7 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5358,22 +5358,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>498.9056400965586</v>
+        <v>339.7502131046251</v>
       </c>
       <c r="L15" t="n">
-        <v>745.6707680030228</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395484</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059517</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>397.7517393246783</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="C16" t="n">
-        <v>397.7517393246783</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="D16" t="n">
-        <v>247.6350999123426</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.210845262961</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765191</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V16" t="n">
-        <v>786.0822064765191</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="W16" t="n">
-        <v>618.5443184682084</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="X16" t="n">
-        <v>618.5443184682084</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="Y16" t="n">
-        <v>397.7517393246783</v>
+        <v>507.0827848727882</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5510,55 +5510,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690735</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409608</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748357</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742901</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769786</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373971</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805659</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.9892362638</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2525.05892046586</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>2771.824048372324</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>3540.192194764786</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>4289.159124556164</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>4568.699189774861</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>4773.721670557071</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014294</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098069</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021847</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641234</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409491</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475757</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710803</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>355.6416303362444</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>355.6416303362444</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>355.6416303362444</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>355.6416303362444</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V19" t="n">
-        <v>865.8513795167351</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W19" t="n">
-        <v>576.4342094797745</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X19" t="n">
-        <v>576.4342094797745</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y19" t="n">
-        <v>355.6416303362444</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="20">
@@ -5741,37 +5741,37 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690735</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409608</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748357</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742901</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769786</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373971</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805659</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>2375.9892362638</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>2786.879505108313</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>3033.644633014777</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>3340.964766294739</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>3899.235428472202</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>4568.699189774861</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>4773.721670557071</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098069</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021847</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641234</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409491</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475757</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710803</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4075.516172206886</v>
+        <v>263.2449295548433</v>
       </c>
       <c r="C22" t="n">
-        <v>3906.579989278979</v>
+        <v>263.2449295548433</v>
       </c>
       <c r="D22" t="n">
-        <v>3756.463349866644</v>
+        <v>263.2449295548433</v>
       </c>
       <c r="E22" t="n">
-        <v>3756.463349866644</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F22" t="n">
-        <v>3609.573402368733</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>3609.573402368733</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>4637.0691578038</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>4637.0691578038</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>4382.384669597914</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W22" t="n">
-        <v>4382.384669597914</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X22" t="n">
-        <v>4257.164637037125</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y22" t="n">
-        <v>4257.164637037125</v>
+        <v>444.8933943850831</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5978,40 +5978,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,19 +6020,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6063,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1595.645765494011</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1925.508393158044</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>2205.048458376741</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
         <v>2536.440602918915</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.155393916675</v>
+        <v>773.454678735334</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916675</v>
+        <v>604.5184958074271</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916675</v>
+        <v>454.4018563950914</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916675</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916675</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4637.069157803799</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>4452.03918220107</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>4197.354693995183</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W25" t="n">
-        <v>3907.937523958222</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="X25" t="n">
-        <v>3679.947973060205</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="Y25" t="n">
-        <v>3459.155393916675</v>
+        <v>955.1031435655738</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6248,28 +6248,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>2525.058920465859</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>2771.824048372323</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>3540.192194764784</v>
+        <v>1689.561836756086</v>
       </c>
       <c r="N27" t="n">
-        <v>3973.880983602626</v>
+        <v>2019.424464420119</v>
       </c>
       <c r="O27" t="n">
-        <v>4253.421048821323</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>4773.72167055707</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>413.0432218861031</v>
+        <v>579.3570368996734</v>
       </c>
       <c r="C28" t="n">
-        <v>244.1070389581962</v>
+        <v>410.4208539717665</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581962</v>
+        <v>260.3042145594308</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>112.3911209770376</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1187.92115703528</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>1104.901435896834</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W28" t="n">
-        <v>815.4842658598729</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="X28" t="n">
-        <v>815.4842658598729</v>
+        <v>981.7980808734433</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.6916867163428</v>
+        <v>761.0055017299131</v>
       </c>
     </row>
     <row r="29">
@@ -6440,22 +6440,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6464,10 +6464,10 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6476,7 +6476,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899127</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6546,19 +6546,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>932.1883377003199</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N30" t="n">
-        <v>1736.599915964471</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>692.3809108364826</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>692.3809108364826</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6646,25 +6646,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V31" t="n">
-        <v>1209.787631771461</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W31" t="n">
-        <v>920.3704617344999</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X31" t="n">
-        <v>692.3809108364826</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y31" t="n">
-        <v>692.3809108364826</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="32">
@@ -6680,7 +6680,7 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6692,37 +6692,37 @@
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6774,25 +6774,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646855</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O33" t="n">
-        <v>2112.811595180915</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P33" t="n">
         <v>2317.834075963124</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3855.296940664495</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="C34" t="n">
-        <v>3855.296940664495</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D34" t="n">
-        <v>3705.180301252159</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E34" t="n">
-        <v>3705.180301252159</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F34" t="n">
-        <v>3705.180301252159</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>3537.00497957198</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>3537.00497957198</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>4549.85945949167</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>4326.074044281177</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U34" t="n">
-        <v>4036.945405494735</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V34" t="n">
-        <v>4036.945405494735</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W34" t="n">
-        <v>4036.945405494735</v>
+        <v>964.135741824786</v>
       </c>
       <c r="X34" t="n">
-        <v>4036.945405494735</v>
+        <v>931.1046727766346</v>
       </c>
       <c r="Y34" t="n">
-        <v>4036.945405494735</v>
+        <v>710.3120936331045</v>
       </c>
     </row>
     <row r="35">
@@ -6929,40 +6929,40 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250804</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>2911.709630095317</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>3177.427413012051</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>3484.747546292012</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N36" t="n">
-        <v>4289.159124556163</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O36" t="n">
-        <v>4568.69918977486</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P36" t="n">
-        <v>4773.72167055707</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014293</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>528.105874218302</v>
+        <v>3782.260917288848</v>
       </c>
       <c r="C37" t="n">
-        <v>359.1696912903951</v>
+        <v>3782.260917288848</v>
       </c>
       <c r="D37" t="n">
-        <v>359.1696912903951</v>
+        <v>3632.144277876512</v>
       </c>
       <c r="E37" t="n">
-        <v>359.1696912903951</v>
+        <v>3632.144277876512</v>
       </c>
       <c r="F37" t="n">
-        <v>359.1696912903951</v>
+        <v>3632.144277876512</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>3463.968956196333</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>3463.968956196333</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T37" t="n">
-        <v>1288.300147871944</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U37" t="n">
-        <v>999.1715090855023</v>
+        <v>4036.945405494735</v>
       </c>
       <c r="V37" t="n">
-        <v>999.1715090855023</v>
+        <v>3782.260917288848</v>
       </c>
       <c r="W37" t="n">
-        <v>709.7543390485417</v>
+        <v>3782.260917288848</v>
       </c>
       <c r="X37" t="n">
-        <v>709.7543390485417</v>
+        <v>3782.260917288848</v>
       </c>
       <c r="Y37" t="n">
-        <v>709.7543390485417</v>
+        <v>3782.260917288848</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7187,16 +7187,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>485.5200852635876</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L39" t="n">
-        <v>1099.417155020476</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M39" t="n">
-        <v>1406.737288300438</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N39" t="n">
-        <v>1736.599915964471</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>438.3056288361466</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C40" t="n">
-        <v>269.3694459082398</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>119.252806495904</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>119.252806495904</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>119.252806495904</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>119.252806495904</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>119.252806495904</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7336,10 +7336,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7354,28 +7354,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1440.396996252309</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1440.396996252309</v>
       </c>
       <c r="T40" t="n">
-        <v>1164.055751909234</v>
+        <v>1440.396996252309</v>
       </c>
       <c r="U40" t="n">
-        <v>1164.055751909234</v>
+        <v>1151.268357465867</v>
       </c>
       <c r="V40" t="n">
-        <v>909.3712637033469</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="W40" t="n">
-        <v>619.9540936663864</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="X40" t="n">
-        <v>619.9540936663864</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y40" t="n">
-        <v>619.9540936663864</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="41">
@@ -7394,16 +7394,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822464</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7436,10 +7436,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.357857465301</v>
@@ -7451,7 +7451,7 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614725</v>
@@ -7491,19 +7491,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>326.249275617007</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L42" t="n">
-        <v>940.1463453738957</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
         <v>2536.440602918915</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3925.360448591583</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="C43" t="n">
-        <v>3925.360448591583</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="D43" t="n">
-        <v>3775.243809179247</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="E43" t="n">
-        <v>3627.330715596854</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="F43" t="n">
-        <v>3627.330715596854</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916675</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>4660.934562929845</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>4437.14914771935</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U43" t="n">
-        <v>4148.020508932908</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V43" t="n">
-        <v>4148.020508932908</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W43" t="n">
-        <v>4148.020508932908</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X43" t="n">
-        <v>4107.008913421822</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="Y43" t="n">
-        <v>4107.008913421822</v>
+        <v>130.9054447954967</v>
       </c>
     </row>
     <row r="44">
@@ -7649,7 +7649,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7682,7 +7682,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
@@ -7728,13 +7728,13 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>339.7502131046251</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N45" t="n">
         <v>2051.878056918008</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
         <v>97.21709146028584</v>
@@ -7831,25 +7831,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1164.055751909234</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U46" t="n">
-        <v>874.927113122792</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V46" t="n">
-        <v>874.927113122792</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W46" t="n">
-        <v>874.927113122792</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X46" t="n">
-        <v>874.927113122792</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>745.8314722131613</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050818</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142009</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8775,22 +8775,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>176.7176547498451</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>213.2603911806621</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,10 +9006,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>213.2603911806617</v>
+        <v>52.49733361305232</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9024,10 +9024,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>423.3376789165101</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,19 +9480,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N21" t="n">
-        <v>230.7151863772025</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504511</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9714,25 +9714,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>127.646125010065</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,13 +9963,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>104.8749102765744</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>32.78140656352423</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10194,22 +10194,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>91.23759968302113</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>308.1251096272032</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>349.7653003338567</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,10 +10440,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10662,19 +10662,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>19.14409596996961</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>412.600292959643</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714835</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>199.7396287231155</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>73.53204524669997</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11139,7 +11139,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>38.86002301949873</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11148,13 +11148,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11376,16 +11376,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>52.49733361305235</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>138.3191385580633</v>
+        <v>153.6466732318522</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,10 +23656,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>85.89256833992761</v>
       </c>
       <c r="W16" t="n">
-        <v>120.6604892083634</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>146.4805103800787</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>109.5615635752525</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>92.48564839722924</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,22 +24178,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>101.7418231538568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,22 +24361,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>104.7356618474206</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24415,22 +24415,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>103.0576765518758</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>130.398758801347</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>169.9481193967659</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,22 +24835,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>17.75187096865565</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24886,16 +24886,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>194.5731143188403</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25081,10 +25081,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>33.34815566552007</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25138,10 +25138,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>193.0088970313673</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,13 +25309,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>105.6538188074105</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,19 +25360,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>123.0019520030832</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25567,7 +25567,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>88.60388757901001</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25594,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>52.03027084125488</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,25 +25783,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>115.5623585656773</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,13 +25843,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>185.1081758330621</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26020,16 +26020,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,16 +26080,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.77996885156043</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>815867.4483931668</v>
+        <v>815867.4483931665</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>815867.4483931668</v>
+        <v>815867.4483931666</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>815867.4483931665</v>
+        <v>815867.4483931666</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>815867.4483931668</v>
+        <v>815867.4483931666</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>815867.4483931668</v>
+        <v>815867.4483931669</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>815867.4483931666</v>
+        <v>815867.4483931669</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>815867.4483931668</v>
+        <v>815867.4483931665</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>815867.4483931668</v>
+        <v>815867.4483931666</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="E2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="F2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="G2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="H2" t="n">
         <v>566992.1366196782</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="J2" t="n">
         <v>566992.136619678</v>
       </c>
-      <c r="G2" t="n">
-        <v>566992.1366196778</v>
-      </c>
-      <c r="H2" t="n">
-        <v>566992.1366196781</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>566992.1366196782</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="M2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="N2" t="n">
         <v>566992.1366196782</v>
       </c>
-      <c r="K2" t="n">
-        <v>566992.1366196775</v>
-      </c>
-      <c r="L2" t="n">
-        <v>566992.1366196782</v>
-      </c>
-      <c r="M2" t="n">
-        <v>566992.1366196781</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>566992.1366196777</v>
+      </c>
+      <c r="P2" t="n">
         <v>566992.1366196779</v>
-      </c>
-      <c r="O2" t="n">
-        <v>566992.1366196778</v>
-      </c>
-      <c r="P2" t="n">
-        <v>566992.1366196781</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
-        <v>1.921925654492527e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>14711.50065430951</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>14711.5006543095</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
     </row>
     <row r="5">
@@ -26473,19 +26473,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871665</v>
-      </c>
       <c r="G5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-233931.4178681046</v>
+        <v>-234346.6323775717</v>
       </c>
       <c r="C6" t="n">
-        <v>356036.4613464399</v>
+        <v>355621.2468369729</v>
       </c>
       <c r="D6" t="n">
-        <v>356036.4613464399</v>
+        <v>355621.2468369728</v>
       </c>
       <c r="E6" t="n">
-        <v>-64866.72646024392</v>
+        <v>-65200.89542737413</v>
       </c>
       <c r="F6" t="n">
-        <v>460293.3100166516</v>
+        <v>459959.1410495222</v>
       </c>
       <c r="G6" t="n">
-        <v>460293.3100166516</v>
+        <v>459959.1410495222</v>
       </c>
       <c r="H6" t="n">
-        <v>460293.3100166519</v>
+        <v>459959.1410495226</v>
       </c>
       <c r="I6" t="n">
-        <v>460293.3100166522</v>
+        <v>459959.1410495224</v>
       </c>
       <c r="J6" t="n">
-        <v>283870.0908240591</v>
+        <v>283535.9218569294</v>
       </c>
       <c r="K6" t="n">
-        <v>460293.3100166514</v>
+        <v>459959.1410495226</v>
       </c>
       <c r="L6" t="n">
-        <v>460293.3100166521</v>
+        <v>459959.1410495222</v>
       </c>
       <c r="M6" t="n">
-        <v>325492.2947828148</v>
+        <v>325158.125815685</v>
       </c>
       <c r="N6" t="n">
-        <v>460293.3100166518</v>
+        <v>459959.1410495226</v>
       </c>
       <c r="O6" t="n">
-        <v>460293.3100166516</v>
+        <v>459959.141049522</v>
       </c>
       <c r="P6" t="n">
-        <v>460293.310016652</v>
+        <v>459959.1410495222</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.558272570440899e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26738,22 +26738,22 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541005</v>
-      </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26802,10 +26802,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.558272570440899e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,31 +27018,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>540.9263704990178</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545553</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>540.9263704990176</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545559</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.558272570440899e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>228.4467616317565</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>22.27186742265792</v>
       </c>
     </row>
     <row r="3">
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>190.1582242575331</v>
       </c>
       <c r="V4" t="n">
-        <v>125.133230616595</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>214.161046442181</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>212.3910411555862</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27816,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>187.0800792700373</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>186.621123495102</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>143.5000804901045</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>84.06035595945021</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>46.5320878050798</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>111.3220899503947</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>3.580894705842328e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-9.072134280853802e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28731,7 +28731,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>4.336205468765305e-12</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N7" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31753,7 +31753,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,31 +31762,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31835,31 +31835,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,7 +31926,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31938,19 +31938,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,37 +31999,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,31 +32072,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34781,7 +34781,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730084</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,13 +35094,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N7" t="n">
         <v>148.370846145888</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,25 +35413,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>487.1420318003114</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>495.6240934217703</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>363.8358297686011</v>
+        <v>203.0727722009916</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>756.5322523145231</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N21" t="n">
-        <v>563.9097597752154</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109079</v>
       </c>
       <c r="M23" t="n">
         <v>805.3296502221117</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>334.7395399415897</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
         <v>88.01303278507413</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36683,13 +36683,13 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>438.0694836745873</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>315.1451088046324</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
         <v>88.01303278507413</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36914,22 +36914,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>401.6619767334874</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>641.3196830252161</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>599.023005289881</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
@@ -37160,10 +37160,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>560.0354988619143</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>268.4018009259939</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>745.7948663576559</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
@@ -37406,7 +37406,7 @@
         <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502048</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>350.3150673110547</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>383.9564222971663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37859,7 +37859,7 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>189.435461607438</v>
+        <v>350.3150673110547</v>
       </c>
       <c r="L42" t="n">
         <v>620.0980502594834</v>
@@ -37868,13 +37868,13 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>88.01303278507413</v>
@@ -38096,16 +38096,16 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>203.0727722009916</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2454957.909440133</v>
+        <v>2530487.579104938</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -665,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -677,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>53.43164883304241</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,7 +715,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>363.9660712333957</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -823,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>88.70695541093662</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>96.12364998444463</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -899,10 +901,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -914,7 +916,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481174</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>197.8753414835264</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -956,7 +958,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>136.8499275618269</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1096,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>99.66075074687571</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>366.4752704092854</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>90.35535684952133</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>100.8234489996242</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>177.9754166819401</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1430,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1579,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>67.90088782653709</v>
+        <v>122.9684277897099</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1658,7 +1660,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1768,16 +1770,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -1813,25 +1815,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>166.2450749839004</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>198.4537138387773</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>137.8395890029324</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2236,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94831424933993</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2296,16 +2298,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>163.6838942365731</v>
       </c>
     </row>
     <row r="23">
@@ -2476,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>41.6983007991486</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>196.0108582288291</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>15.02228922158428</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2764,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2968,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>93.87916681139897</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.01153903325445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3187,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3241,19 +3243,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>228.2066444308515</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>32.70075835766986</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3424,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>4.765426656861491</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>173.8202428979972</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3512,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3658,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.93408156253791</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.140635530717</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3800,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3904,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>33.35146980185879</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>190.6405752120382</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4186,22 +4188,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>33.35146980185879</v>
+        <v>73.66308659887159</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>555.4725825998845</v>
+        <v>841.766221650837</v>
       </c>
       <c r="C2" t="n">
-        <v>555.4725825998845</v>
+        <v>841.766221650837</v>
       </c>
       <c r="D2" t="n">
-        <v>555.4725825998845</v>
+        <v>841.766221650837</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>455.9779690525928</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>449.0324683033893</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>435.1090642419802</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>107.914344277983</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="Y2" t="n">
-        <v>942.0724226640064</v>
+        <v>1228.366061714959</v>
       </c>
     </row>
     <row r="3">
@@ -4413,16 +4415,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>268.5993065148977</v>
+        <v>383.841510736975</v>
       </c>
       <c r="C4" t="n">
-        <v>268.5993065148977</v>
+        <v>383.841510736975</v>
       </c>
       <c r="D4" t="n">
-        <v>268.5993065148977</v>
+        <v>383.841510736975</v>
       </c>
       <c r="E4" t="n">
-        <v>268.5993065148977</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>638.5259989428619</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587812</v>
+        <v>638.5259989428619</v>
       </c>
       <c r="T4" t="n">
-        <v>365.6939024587812</v>
+        <v>638.5259989428619</v>
       </c>
       <c r="U4" t="n">
-        <v>268.5993065148977</v>
+        <v>638.5259989428619</v>
       </c>
       <c r="V4" t="n">
-        <v>268.5993065148977</v>
+        <v>383.841510736975</v>
       </c>
       <c r="W4" t="n">
-        <v>268.5993065148977</v>
+        <v>383.841510736975</v>
       </c>
       <c r="X4" t="n">
-        <v>268.5993065148977</v>
+        <v>383.841510736975</v>
       </c>
       <c r="Y4" t="n">
-        <v>268.5993065148977</v>
+        <v>383.841510736975</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1919.063478780784</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="C5" t="n">
-        <v>1550.100961840373</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D5" t="n">
-        <v>1191.835263233622</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353781</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861747</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548715</v>
+        <v>2266.068831556293</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2012.307046194385</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>1681.244158850814</v>
       </c>
       <c r="W5" t="n">
-        <v>1919.063478780784</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="X5" t="n">
-        <v>1919.063478780784</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="Y5" t="n">
-        <v>1919.063478780784</v>
+        <v>1328.4755035807</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036376</v>
+        <v>53.94298182036423</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204935</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.447464661592</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598705</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,28 +4734,28 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.712065060056</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="S7" t="n">
-        <v>698.712065060056</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="T7" t="n">
-        <v>698.712065060056</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U7" t="n">
         <v>598.0446400632119</v>
@@ -4762,13 +4764,13 @@
         <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1394.624369323446</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C8" t="n">
-        <v>1394.624369323446</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2550.852364326976</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2332.217697299039</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2078.455911937131</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1747.39302459356</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1394.624369323446</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X8" t="n">
-        <v>1394.624369323446</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="Y8" t="n">
-        <v>1394.624369323446</v>
+        <v>2366.086203674652</v>
       </c>
     </row>
     <row r="9">
@@ -4878,13 +4880,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
         <v>713.8062203571349</v>
@@ -4893,10 +4895,10 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>257.3478788207</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="C10" t="n">
-        <v>257.3478788207</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D10" t="n">
-        <v>257.3478788207</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S10" t="n">
-        <v>478.1404579642301</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T10" t="n">
-        <v>478.1404579642301</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="U10" t="n">
-        <v>478.1404579642301</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="V10" t="n">
-        <v>478.1404579642301</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="W10" t="n">
-        <v>478.1404579642301</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="X10" t="n">
-        <v>478.1404579642301</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="Y10" t="n">
-        <v>257.3478788207</v>
+        <v>370.7922583306645</v>
       </c>
     </row>
     <row r="11">
@@ -5018,67 +5020,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5115,16 +5117,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341676</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
         <v>1302.911127126629</v>
@@ -5133,10 +5135,10 @@
         <v>1632.773754790662</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="C13" t="n">
         <v>972.2646934632137</v>
@@ -5194,19 +5196,19 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1430.329515177562</v>
+        <v>1374.705737436983</v>
       </c>
       <c r="U13" t="n">
-        <v>1141.200876391121</v>
+        <v>1374.705737436983</v>
       </c>
       <c r="V13" t="n">
-        <v>1141.200876391121</v>
+        <v>1374.705737436983</v>
       </c>
       <c r="W13" t="n">
-        <v>1141.200876391121</v>
+        <v>1374.705737436983</v>
       </c>
       <c r="X13" t="n">
-        <v>1141.200876391121</v>
+        <v>1374.705737436983</v>
       </c>
       <c r="Y13" t="n">
-        <v>1141.200876391121</v>
+        <v>1153.913158293453</v>
       </c>
     </row>
     <row r="14">
@@ -5267,31 +5269,31 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
@@ -5309,13 +5311,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5358,19 +5360,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>339.7502131046251</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>953.6472828615138</v>
+        <v>624.8682044203583</v>
       </c>
       <c r="M15" t="n">
-        <v>1722.015429253975</v>
+        <v>932.1883377003199</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>507.0827848727882</v>
+        <v>677.4616523829103</v>
       </c>
       <c r="C16" t="n">
-        <v>507.0827848727882</v>
+        <v>677.4616523829103</v>
       </c>
       <c r="D16" t="n">
-        <v>507.0827848727882</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="E16" t="n">
-        <v>359.1696912903951</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G16" t="n">
         <v>359.1696912903951</v>
@@ -5461,25 +5463,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383442</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V16" t="n">
-        <v>507.0827848727882</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W16" t="n">
-        <v>507.0827848727882</v>
+        <v>898.2542315264404</v>
       </c>
       <c r="X16" t="n">
-        <v>507.0827848727882</v>
+        <v>898.2542315264404</v>
       </c>
       <c r="Y16" t="n">
-        <v>507.0827848727882</v>
+        <v>677.4616523829103</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5510,49 +5512,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5589,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>857.5427825698951</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>720.4504516500526</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>551.5142687221457</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>551.5142687221457</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>551.5142687221457</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>404.6243212242354</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>236.448999544056</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>675.007103038344</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>420.3226148324571</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W19" t="n">
-        <v>130.9054447954965</v>
+        <v>720.4504516500526</v>
       </c>
       <c r="X19" t="n">
-        <v>130.9054447954965</v>
+        <v>720.4504516500526</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.9054447954965</v>
+        <v>720.4504516500526</v>
       </c>
     </row>
     <row r="20">
@@ -5729,25 +5731,25 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
@@ -5768,7 +5770,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.627437207831</v>
@@ -5826,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>263.2449295548433</v>
+        <v>3888.981946387244</v>
       </c>
       <c r="C22" t="n">
-        <v>263.2449295548433</v>
+        <v>3888.981946387244</v>
       </c>
       <c r="D22" t="n">
-        <v>263.2449295548433</v>
+        <v>3738.865306974908</v>
       </c>
       <c r="E22" t="n">
-        <v>208.7516828383384</v>
+        <v>3738.865306974908</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>3738.865306974908</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>4571.725934227851</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655738</v>
+        <v>4571.725934227851</v>
       </c>
       <c r="W22" t="n">
-        <v>665.6859735286132</v>
+        <v>4282.308764190891</v>
       </c>
       <c r="X22" t="n">
-        <v>665.6859735286132</v>
+        <v>4054.319213292873</v>
       </c>
       <c r="Y22" t="n">
-        <v>444.8933943850831</v>
+        <v>3888.981946387244</v>
       </c>
     </row>
     <row r="23">
@@ -5981,37 +5983,37 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6063,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1894.594339433115</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2174.134404651812</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2379.156885434021</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>773.454678735334</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C25" t="n">
-        <v>604.5184958074271</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D25" t="n">
-        <v>454.4018563950914</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383756</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6178,19 +6180,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>1300.925504670196</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655738</v>
+        <v>1046.241016464309</v>
       </c>
       <c r="W25" t="n">
-        <v>955.1031435655738</v>
+        <v>1046.241016464309</v>
       </c>
       <c r="X25" t="n">
-        <v>955.1031435655738</v>
+        <v>818.2514655662918</v>
       </c>
       <c r="Y25" t="n">
-        <v>955.1031435655738</v>
+        <v>597.4588864227617</v>
       </c>
     </row>
     <row r="26">
@@ -6203,10 +6205,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6218,13 +6220,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514082</v>
@@ -6236,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6257,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6303,28 +6305,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1689.561836756086</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N27" t="n">
-        <v>2019.424464420119</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>579.3570368996734</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C28" t="n">
-        <v>410.4208539717665</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>260.3042145594308</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>112.3911209770376</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6412,22 +6414,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>1209.787631771461</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>1209.787631771461</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>981.7980808734433</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y28" t="n">
-        <v>761.0055017299131</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,67 +6448,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,22 +6539,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M30" t="n">
-        <v>1208.995055864554</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O30" t="n">
         <v>2123.441607278215</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>192.0445326839212</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>192.0445326839212</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>192.0445326839212</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>192.0445326839212</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>192.0445326839212</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>192.0445326839212</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>192.0445326839212</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6625,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6643,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U31" t="n">
-        <v>1075.21084526296</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V31" t="n">
-        <v>820.5263570570736</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="W31" t="n">
-        <v>531.109187020113</v>
+        <v>420.0340835819385</v>
       </c>
       <c r="X31" t="n">
-        <v>303.1196361220957</v>
+        <v>192.0445326839212</v>
       </c>
       <c r="Y31" t="n">
-        <v>278.8655562905255</v>
+        <v>192.0445326839212</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6689,7 +6691,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
@@ -6698,22 +6700,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
@@ -6731,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6783,22 +6785,22 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>880.8106280646855</v>
+        <v>816.7950850315608</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.130761344647</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N33" t="n">
-        <v>1517.99338900868</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>710.3120936331045</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C34" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028587</v>
@@ -6880,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>964.135741824786</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>964.135741824786</v>
+        <v>555.5704444251535</v>
       </c>
       <c r="W34" t="n">
-        <v>964.135741824786</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="X34" t="n">
-        <v>931.1046727766346</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y34" t="n">
-        <v>710.3120936331045</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="35">
@@ -6920,7 +6922,7 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
         <v>904.3190116155888</v>
@@ -6935,7 +6937,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514082</v>
@@ -7026,16 +7028,16 @@
         <v>1302.911127126629</v>
       </c>
       <c r="N36" t="n">
-        <v>2041.248044820708</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O36" t="n">
-        <v>2320.788110039405</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3782.260917288848</v>
+        <v>840.6662285267281</v>
       </c>
       <c r="C37" t="n">
-        <v>3782.260917288848</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="D37" t="n">
-        <v>3632.144277876512</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E37" t="n">
-        <v>3632.144277876512</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F37" t="n">
-        <v>3632.144277876512</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G37" t="n">
-        <v>3463.968956196333</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
-        <v>3463.968956196333</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>4326.074044281177</v>
+        <v>1323.340267630633</v>
       </c>
       <c r="U37" t="n">
-        <v>4036.945405494735</v>
+        <v>1323.340267630633</v>
       </c>
       <c r="V37" t="n">
-        <v>3782.260917288848</v>
+        <v>1068.655779424746</v>
       </c>
       <c r="W37" t="n">
-        <v>3782.260917288848</v>
+        <v>1068.655779424746</v>
       </c>
       <c r="X37" t="n">
-        <v>3782.260917288848</v>
+        <v>840.6662285267281</v>
       </c>
       <c r="Y37" t="n">
-        <v>3782.260917288848</v>
+        <v>840.6662285267281</v>
       </c>
     </row>
     <row r="38">
@@ -7160,34 +7162,34 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
         <v>4454.632848899127</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>2786.879505108311</v>
       </c>
       <c r="L39" t="n">
-        <v>659.3731057211721</v>
+        <v>3400.7765748652</v>
       </c>
       <c r="M39" t="n">
-        <v>1039.489963795367</v>
+        <v>3708.096708145162</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>4037.959335809195</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>4360.722674916368</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R39" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S39" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T39" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U39" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W39" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X39" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y39" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="40">
@@ -7306,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>266.1532743881928</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E40" t="n">
         <v>97.21709146028584</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1440.396996252309</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1440.396996252309</v>
+        <v>1329.077244769299</v>
       </c>
       <c r="T40" t="n">
-        <v>1440.396996252309</v>
+        <v>1329.077244769299</v>
       </c>
       <c r="U40" t="n">
-        <v>1151.268357465867</v>
+        <v>1329.077244769299</v>
       </c>
       <c r="V40" t="n">
-        <v>896.5838692599799</v>
+        <v>1074.392756563412</v>
       </c>
       <c r="W40" t="n">
-        <v>896.5838692599799</v>
+        <v>784.9755865264517</v>
       </c>
       <c r="X40" t="n">
-        <v>668.5943183619626</v>
+        <v>784.9755865264517</v>
       </c>
       <c r="Y40" t="n">
-        <v>447.8017392184324</v>
+        <v>564.1830073829216</v>
       </c>
     </row>
     <row r="41">
@@ -7409,13 +7411,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7445,7 +7447,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
@@ -7488,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>485.5200852635876</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L42" t="n">
-        <v>1099.417155020476</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M42" t="n">
-        <v>1406.737288300438</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N42" t="n">
-        <v>1736.599915964471</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.9054447954967</v>
+        <v>3607.068487499068</v>
       </c>
       <c r="C43" t="n">
-        <v>130.9054447954967</v>
+        <v>3607.068487499068</v>
       </c>
       <c r="D43" t="n">
-        <v>130.9054447954967</v>
+        <v>3607.068487499068</v>
       </c>
       <c r="E43" t="n">
-        <v>130.9054447954967</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F43" t="n">
-        <v>130.9054447954967</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G43" t="n">
-        <v>130.9054447954967</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T43" t="n">
-        <v>964.135741824786</v>
+        <v>4668.288335426375</v>
       </c>
       <c r="U43" t="n">
-        <v>675.0071030383442</v>
+        <v>4379.159696639933</v>
       </c>
       <c r="V43" t="n">
-        <v>420.3226148324574</v>
+        <v>4124.475208434046</v>
       </c>
       <c r="W43" t="n">
-        <v>130.9054447954967</v>
+        <v>3835.058038397086</v>
       </c>
       <c r="X43" t="n">
-        <v>130.9054447954967</v>
+        <v>3607.068487499068</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.9054447954967</v>
+        <v>3607.068487499068</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,16 +7633,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7649,10 +7651,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7682,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K45" t="n">
-        <v>339.7502131046251</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L45" t="n">
-        <v>953.6472828615138</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M45" t="n">
-        <v>1722.015429253975</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7834,22 +7836,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>964.135741824786</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U46" t="n">
-        <v>675.0071030383442</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V46" t="n">
-        <v>420.3226148324574</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W46" t="n">
-        <v>130.9054447954967</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8073,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8310,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992665</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,13 +8543,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992664</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8781,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>213.2603911806621</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>29.47535963978268</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,22 +9008,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>52.49733361305232</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>91.23759968302113</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9240,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>15.83804904622804</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,16 +9482,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.700368322958</v>
+        <v>403.7628319612152</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9498,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504511</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9717,16 +9719,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>158.8724419039329</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9951,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>32.78140656352423</v>
+        <v>202.5230052237939</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,19 +10193,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>20.6378986413543</v>
       </c>
       <c r="N30" t="n">
-        <v>308.1251096272032</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10349,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711655</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10431,7 +10433,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>349.7653003338567</v>
+        <v>285.1031356539327</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10674,19 +10676,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>412.600292959643</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>104.8749102765748</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,22 +10901,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>73.53204524669997</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>43.65987261462271</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>199.7396287231155</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>87.16935584025367</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11373,16 +11375,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K45" t="n">
-        <v>52.49733361305235</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445217</v>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23467,10 +23469,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>153.6466732318522</v>
+        <v>98.57913326867937</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23482,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,16 +23658,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23701,25 +23703,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>85.89256833992761</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>88.06928449781373</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>146.4805103800787</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,13 +23901,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>11.07423936460376</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>92.48564839722924</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24184,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>54.90075911552174</v>
       </c>
     </row>
     <row r="23">
@@ -24364,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>104.7356618474206</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24418,7 +24420,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>90.22649416974824</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>51.71984429841024</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>130.398758801347</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24652,22 +24654,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24856,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>16.54007865287301</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.5731143188403</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,19 +25077,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>23.9309988929765</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>193.0088970313673</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,16 +25314,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>105.6538188074105</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>47.72731816039209</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25546,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>52.03027084125488</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>29.78017445288623</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25792,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,7 +25803,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>115.5623585656773</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>30.90698584635106</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26074,22 +26076,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>192.3581855871784</v>
+        <v>152.0465687901656</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>815867.4483931666</v>
+        <v>815867.4483931668</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>815867.4483931666</v>
+        <v>815867.4483931669</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>815867.4483931666</v>
+        <v>815867.4483931668</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>815867.4483931669</v>
+        <v>815867.4483931665</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>815867.4483931669</v>
+        <v>815867.4483931668</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>815867.4483931665</v>
+        <v>815867.4483931666</v>
       </c>
     </row>
     <row r="16">
@@ -26314,46 +26316,46 @@
         <v>595255.2831516049</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516046</v>
       </c>
       <c r="E2" t="n">
         <v>566992.136619678</v>
       </c>
       <c r="F2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="G2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="H2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="I2" t="n">
+        <v>566992.1366196774</v>
+      </c>
+      <c r="J2" t="n">
+        <v>566992.1366196775</v>
+      </c>
+      <c r="K2" t="n">
         <v>566992.1366196779</v>
       </c>
-      <c r="G2" t="n">
-        <v>566992.1366196779</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
+        <v>566992.1366196775</v>
+      </c>
+      <c r="M2" t="n">
         <v>566992.1366196782</v>
       </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
         <v>566992.1366196781</v>
       </c>
-      <c r="J2" t="n">
-        <v>566992.136619678</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>566992.1366196782</v>
       </c>
-      <c r="L2" t="n">
-        <v>566992.1366196779</v>
-      </c>
-      <c r="M2" t="n">
-        <v>566992.1366196779</v>
-      </c>
-      <c r="N2" t="n">
-        <v>566992.1366196782</v>
-      </c>
-      <c r="O2" t="n">
-        <v>566992.1366196777</v>
-      </c>
       <c r="P2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.1366196781</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26451,7 +26453,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="O4" t="n">
         <v>15045.6696214391</v>
@@ -26476,13 +26478,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-234346.6323775717</v>
+        <v>-234346.6323775716</v>
       </c>
       <c r="C6" t="n">
-        <v>355621.2468369729</v>
+        <v>355621.2468369727</v>
       </c>
       <c r="D6" t="n">
-        <v>355621.2468369728</v>
+        <v>355621.2468369725</v>
       </c>
       <c r="E6" t="n">
-        <v>-65200.89542737413</v>
+        <v>-65200.89542737375</v>
       </c>
       <c r="F6" t="n">
+        <v>459959.1410495223</v>
+      </c>
+      <c r="G6" t="n">
+        <v>459959.1410495224</v>
+      </c>
+      <c r="H6" t="n">
+        <v>459959.1410495224</v>
+      </c>
+      <c r="I6" t="n">
+        <v>459959.1410495217</v>
+      </c>
+      <c r="J6" t="n">
+        <v>283535.9218569288</v>
+      </c>
+      <c r="K6" t="n">
         <v>459959.1410495222</v>
       </c>
-      <c r="G6" t="n">
-        <v>459959.1410495222</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="L6" t="n">
+        <v>459959.1410495219</v>
+      </c>
+      <c r="M6" t="n">
+        <v>325158.1258156854</v>
+      </c>
+      <c r="N6" t="n">
+        <v>459959.1410495224</v>
+      </c>
+      <c r="O6" t="n">
         <v>459959.1410495226</v>
       </c>
-      <c r="I6" t="n">
+      <c r="P6" t="n">
         <v>459959.1410495224</v>
-      </c>
-      <c r="J6" t="n">
-        <v>283535.9218569294</v>
-      </c>
-      <c r="K6" t="n">
-        <v>459959.1410495226</v>
-      </c>
-      <c r="L6" t="n">
-        <v>459959.1410495222</v>
-      </c>
-      <c r="M6" t="n">
-        <v>325158.125815685</v>
-      </c>
-      <c r="N6" t="n">
-        <v>459959.1410495226</v>
-      </c>
-      <c r="O6" t="n">
-        <v>459959.141049522</v>
-      </c>
-      <c r="P6" t="n">
-        <v>459959.1410495222</v>
       </c>
     </row>
   </sheetData>
@@ -26735,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170865</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>98.49966741181885</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>22.27186742265792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27543,19 +27545,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27584,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>57.95823656922124</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>190.1582242575331</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27619,10 +27621,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>18.57297887413142</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>212.3910411555862</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>17.88169127836775</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>186.621123495102</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>16.2585712541952</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>84.06035595945021</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28011,13 +28013,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>111.3220899503947</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>47.05968877614413</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,16 +31278,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
         <v>193.1674799081577</v>
@@ -31297,25 +31299,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,31 +31357,31 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
@@ -31388,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31938,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34948,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770687</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,13 +35096,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
         <v>148.370846145888</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35261,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>495.6240934217703</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>236.5687745713073</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,22 +35728,22 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>203.0727722009916</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>340.4953046390455</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>88.01303278507413</v>
@@ -35884,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>326.2624260966944</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,16 +36202,16 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734243</v>
+        <v>714.1872090116815</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
@@ -36218,10 +36220,10 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109079</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
         <v>805.3296502221117</v>
@@ -36437,16 +36439,16 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
@@ -36455,7 +36457,7 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>246.8854746890071</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36671,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36686,16 +36688,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>315.1451088046324</v>
+        <v>484.886707464902</v>
       </c>
       <c r="P27" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,19 +36913,19 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>331.0622756918206</v>
       </c>
       <c r="N30" t="n">
-        <v>641.3196830252161</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
         <v>207.0934149315247</v>
@@ -37069,7 +37071,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37151,7 +37153,7 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>599.023005289881</v>
+        <v>534.360840609957</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
@@ -37160,16 +37162,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37394,19 +37396,19 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>745.7948663576559</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>387.238612517683</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>383.9564222971663</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>326.0235748557309</v>
       </c>
       <c r="P39" t="n">
         <v>207.0934149315247</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37786,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>350.3150673110547</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>369.5330580813618</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38093,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K45" t="n">
-        <v>203.0727722009916</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
@@ -38111,10 +38113,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2530487.579104938</v>
+        <v>2523470.564213227</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>324.8436533808514</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>53.43164883304241</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -822,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,22 +861,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>88.70695541093662</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>175.7309251498739</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>164.6242057717103</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>197.8753414835264</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>37.82339983149526</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>128.7835007017901</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>366.4752704092854</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>5.983388191320708</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>101.7806877295495</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>177.9754166819401</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>122.9684277897099</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>225.9910707719766</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>9.776322813356066</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>198.4537138387773</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>137.8395890029324</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>214.7011933078533</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>163.6838942365731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>196.0108582288291</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>115.5269768002176</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>85.4372810299581</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784694</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>40.42818882371066</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>93.87916681139897</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,19 +3003,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3246,16 +3246,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>228.2066444308515</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T37" t="n">
-        <v>173.8202428979972</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.140635530717</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>190.6405752120382</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>73.66308659887159</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>841.766221650837</v>
+        <v>1297.230130518035</v>
       </c>
       <c r="C2" t="n">
-        <v>841.766221650837</v>
+        <v>928.267613577623</v>
       </c>
       <c r="D2" t="n">
-        <v>841.766221650837</v>
+        <v>928.267613577623</v>
       </c>
       <c r="E2" t="n">
-        <v>455.9779690525928</v>
+        <v>542.4793609793787</v>
       </c>
       <c r="F2" t="n">
-        <v>449.0324683033893</v>
+        <v>535.5338602301753</v>
       </c>
       <c r="G2" t="n">
-        <v>435.1090642419802</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>107.914344277983</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>1971.274048960885</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>1618.50539369077</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X2" t="n">
-        <v>1618.50539369077</v>
+        <v>1683.829970582156</v>
       </c>
       <c r="Y2" t="n">
-        <v>1228.366061714959</v>
+        <v>1683.829970582156</v>
       </c>
     </row>
     <row r="3">
@@ -4400,40 +4400,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>383.841510736975</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="C4" t="n">
-        <v>383.841510736975</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D4" t="n">
-        <v>383.841510736975</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E4" t="n">
-        <v>235.9284171545819</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545819</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>638.5259989428619</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>638.5259989428619</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T4" t="n">
-        <v>638.5259989428619</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="U4" t="n">
-        <v>638.5259989428619</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="V4" t="n">
-        <v>383.841510736975</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="W4" t="n">
-        <v>383.841510736975</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="X4" t="n">
-        <v>383.841510736975</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="Y4" t="n">
-        <v>383.841510736975</v>
+        <v>373.0594214943678</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1328.4755035807</v>
+        <v>1744.23243129246</v>
       </c>
       <c r="C5" t="n">
-        <v>959.5129866402885</v>
+        <v>1375.269914352048</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>1017.004215745297</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>631.2159631470531</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>220.2300583574456</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2266.068831556293</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2012.307046194385</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>1681.244158850814</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W5" t="n">
-        <v>1328.4755035807</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X5" t="n">
-        <v>1328.4755035807</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="Y5" t="n">
-        <v>1328.4755035807</v>
+        <v>2130.832271356581</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1482364572798</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1482364572798</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>598.0446400632119</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>598.0446400632119</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T7" t="n">
-        <v>598.0446400632119</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U7" t="n">
-        <v>598.0446400632119</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1482364572798</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1482364572798</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1482364572798</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1995.909162857192</v>
+        <v>808.0839286340188</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>439.1214116936071</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>80.85571308685655</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>80.85571308685655</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>73.91021233765308</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>59.98680827624398</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>59.98680827624398</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224083</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2311.057514205146</v>
       </c>
       <c r="W8" t="n">
-        <v>2366.086203674652</v>
+        <v>1958.288858935032</v>
       </c>
       <c r="X8" t="n">
-        <v>2366.086203674652</v>
+        <v>1584.823100673952</v>
       </c>
       <c r="Y8" t="n">
-        <v>2366.086203674652</v>
+        <v>1194.683768698141</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.7922583306645</v>
+        <v>325.6879402326648</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>156.7517573047579</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>370.7922583306645</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>370.7922583306645</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V10" t="n">
-        <v>370.7922583306645</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W10" t="n">
-        <v>370.7922583306645</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="X10" t="n">
-        <v>370.7922583306645</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Y10" t="n">
-        <v>370.7922583306645</v>
+        <v>507.3364050629045</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5044,13 +5044,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5068,25 +5068,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5129,13 +5129,13 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1632.773754790662</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2302.237516093321</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>972.2646934632137</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1374.705737436983</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1374.705737436983</v>
+        <v>1046.857046486826</v>
       </c>
       <c r="V13" t="n">
-        <v>1374.705737436983</v>
+        <v>792.1725582809389</v>
       </c>
       <c r="W13" t="n">
-        <v>1374.705737436983</v>
+        <v>792.1725582809389</v>
       </c>
       <c r="X13" t="n">
-        <v>1374.705737436983</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="Y13" t="n">
-        <v>1153.913158293453</v>
+        <v>564.1830073829216</v>
       </c>
     </row>
     <row r="14">
@@ -5275,55 +5275,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>624.8682044203583</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>932.1883377003199</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>677.4616523829103</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C16" t="n">
-        <v>677.4616523829103</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D16" t="n">
-        <v>527.3450129705745</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E16" t="n">
-        <v>527.3450129705745</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705745</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
         <v>359.1696912903951</v>
@@ -5433,7 +5433,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1489.041197009058</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1489.041197009058</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1265.255781798564</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.712528333286</v>
+        <v>976.1271430121219</v>
       </c>
       <c r="V16" t="n">
-        <v>1098.712528333286</v>
+        <v>976.1271430121219</v>
       </c>
       <c r="W16" t="n">
-        <v>898.2542315264404</v>
+        <v>976.1271430121219</v>
       </c>
       <c r="X16" t="n">
-        <v>898.2542315264404</v>
+        <v>748.1375921141046</v>
       </c>
       <c r="Y16" t="n">
-        <v>677.4616523829103</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5512,49 +5512,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5591,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>857.5427825698951</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>720.4504516500526</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>551.5142687221457</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>551.5142687221457</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>551.5142687221457</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>404.6243212242354</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>236.448999544056</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>1009.867621687013</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>720.4504516500526</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>720.4504516500526</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>720.4504516500526</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,25 +5737,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5773,31 +5773,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2317.834075963124</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3888.981946387244</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="C22" t="n">
-        <v>3888.981946387244</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="D22" t="n">
-        <v>3738.865306974908</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E22" t="n">
-        <v>3738.865306974908</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F22" t="n">
-        <v>3738.865306974908</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>3570.689985294729</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294729</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014293</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014293</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>4571.725934227851</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>4571.725934227851</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W22" t="n">
-        <v>4282.308764190891</v>
+        <v>538.3132412509711</v>
       </c>
       <c r="X22" t="n">
-        <v>4054.319213292873</v>
+        <v>538.3132412509711</v>
       </c>
       <c r="Y22" t="n">
-        <v>3888.981946387244</v>
+        <v>538.3132412509711</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5980,7 +5980,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5989,7 +5989,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514082</v>
@@ -6001,16 +6001,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6022,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1564.731711769082</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1894.594339433115</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2174.134404651812</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2379.156885434021</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1300.925504670196</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1046.241016464309</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>1046.241016464309</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>818.2514655662918</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>597.4588864227617</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6220,7 +6220,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6229,7 +6229,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6238,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6305,28 +6305,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>213.9110074201016</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1212.69597660481</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609664</v>
+        <v>1212.69597660481</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550796</v>
+        <v>958.0114883989231</v>
       </c>
       <c r="W28" t="n">
-        <v>441.900558318119</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="X28" t="n">
-        <v>213.9110074201016</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.9110074201016</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="29">
@@ -6460,49 +6460,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6539,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1124.115218311523</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1453.977845975555</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>192.0445326839212</v>
+        <v>716.8555221680796</v>
       </c>
       <c r="C31" t="n">
-        <v>192.0445326839212</v>
+        <v>547.9193392401727</v>
       </c>
       <c r="D31" t="n">
-        <v>192.0445326839212</v>
+        <v>547.9193392401727</v>
       </c>
       <c r="E31" t="n">
-        <v>192.0445326839212</v>
+        <v>400.0062456577796</v>
       </c>
       <c r="F31" t="n">
-        <v>192.0445326839212</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G31" t="n">
-        <v>192.0445326839212</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>192.0445326839212</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6651,22 +6651,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>964.135741824786</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U31" t="n">
-        <v>964.135741824786</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V31" t="n">
-        <v>709.4512536188992</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W31" t="n">
-        <v>420.0340835819385</v>
+        <v>898.5039869983193</v>
       </c>
       <c r="X31" t="n">
-        <v>192.0445326839212</v>
+        <v>898.5039869983193</v>
       </c>
       <c r="Y31" t="n">
-        <v>192.0445326839212</v>
+        <v>898.5039869983193</v>
       </c>
     </row>
     <row r="32">
@@ -6688,43 +6688,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6776,31 +6776,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>816.7950850315608</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1124.115218311523</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1453.977845975555</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>555.5704444251535</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>266.1532743881928</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>266.1532743881928</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y34" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,52 +6916,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7013,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>840.6662285267281</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>671.7300455988212</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>671.7300455988212</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T37" t="n">
-        <v>1323.340267630633</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1323.340267630633</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>1068.655779424746</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>1068.655779424746</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>840.6662285267281</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>840.6662285267281</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,13 +7162,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7186,7 +7186,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>2786.879505108311</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>3400.7765748652</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>3708.096708145162</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>4037.959335809195</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>4360.722674916368</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1329.077244769299</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1329.077244769299</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1329.077244769299</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>1074.392756563412</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>784.9755865264517</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>784.9755865264517</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7405,13 +7405,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514082</v>
@@ -7423,16 +7423,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7493,19 +7493,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1427.741252113634</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1757.603879777666</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3607.068487499068</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C43" t="n">
-        <v>3607.068487499068</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D43" t="n">
-        <v>3607.068487499068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>4668.288335426375</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>4379.159696639933</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>4124.475208434046</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W43" t="n">
-        <v>3835.058038397086</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X43" t="n">
-        <v>3607.068487499068</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y43" t="n">
-        <v>3607.068487499068</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="44">
@@ -7639,34 +7639,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7727,22 +7727,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1187.92115703528</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1187.92115703528</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>1187.92115703528</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>1113.513998854602</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>892.7214197110717</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8546,10 +8546,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783517</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992664</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8777,16 +8777,16 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>29.47535963978268</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9011,10 +9011,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>91.23759968302113</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>15.83804904622804</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>403.7628319612152</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9725,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
-        <v>158.8724419039329</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>202.5230052237939</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10199,22 +10199,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>20.6378986413543</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711655</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>285.1031356539327</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>104.8749102765748</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>43.65987261462271</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,28 +11141,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>87.16935584025367</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>96.03744927814688</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>98.57913326867937</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>60.24628162660073</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>100.1880295904367</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>88.06928449781373</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,13 +23901,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>11.07423936460376</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23943,19 +23943,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>71.82180502873771</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>54.90075911552174</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>90.22649416974824</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>51.71984429841024</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>136.1102800284311</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>104.9928591992206</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>16.54007865287301</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,19 +24891,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>23.9309988929765</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="35">
@@ -25314,25 +25314,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,19 +25362,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T37" t="n">
-        <v>47.72731816039209</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>29.78017445288623</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>90.96703739368829</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25839,10 +25839,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>30.90698584635106</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>152.0465687901656</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>815867.4483931668</v>
+        <v>815867.4483931669</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>815867.4483931665</v>
+        <v>815867.4483931666</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>815867.4483931669</v>
+        <v>815867.4483931665</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>815867.4483931666</v>
+        <v>815867.4483931665</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>815867.4483931668</v>
+        <v>815867.4483931665</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>815867.4483931665</v>
+        <v>815867.4483931666</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>815867.4483931668</v>
+        <v>815867.4483931666</v>
       </c>
     </row>
     <row r="14">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516046</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="E2" t="n">
         <v>566992.136619678</v>
       </c>
       <c r="F2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="G2" t="n">
+        <v>566992.1366196777</v>
+      </c>
+      <c r="H2" t="n">
         <v>566992.136619678</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="J2" t="n">
         <v>566992.1366196781</v>
       </c>
-      <c r="H2" t="n">
-        <v>566992.1366196781</v>
-      </c>
-      <c r="I2" t="n">
-        <v>566992.1366196774</v>
-      </c>
-      <c r="J2" t="n">
-        <v>566992.1366196775</v>
-      </c>
       <c r="K2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.1366196778</v>
       </c>
       <c r="L2" t="n">
         <v>566992.1366196775</v>
       </c>
       <c r="M2" t="n">
-        <v>566992.1366196782</v>
+        <v>566992.1366196778</v>
       </c>
       <c r="N2" t="n">
-        <v>566992.1366196781</v>
+        <v>566992.1366196778</v>
       </c>
       <c r="O2" t="n">
-        <v>566992.1366196782</v>
+        <v>566992.136619678</v>
       </c>
       <c r="P2" t="n">
         <v>566992.1366196781</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
@@ -26453,7 +26453,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
         <v>15045.6696214391</v>
@@ -26472,46 +26472,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-234346.6323775716</v>
+        <v>-234346.6323775718</v>
       </c>
       <c r="C6" t="n">
         <v>355621.2468369727</v>
       </c>
       <c r="D6" t="n">
-        <v>355621.2468369725</v>
+        <v>355621.246836973</v>
       </c>
       <c r="E6" t="n">
-        <v>-65200.89542737375</v>
+        <v>-66175.4866870952</v>
       </c>
       <c r="F6" t="n">
-        <v>459959.1410495223</v>
+        <v>458984.5497898008</v>
       </c>
       <c r="G6" t="n">
-        <v>459959.1410495224</v>
+        <v>458984.5497898003</v>
       </c>
       <c r="H6" t="n">
-        <v>459959.1410495224</v>
+        <v>458984.5497898007</v>
       </c>
       <c r="I6" t="n">
-        <v>459959.1410495217</v>
+        <v>458984.5497898007</v>
       </c>
       <c r="J6" t="n">
-        <v>283535.9218569288</v>
+        <v>282561.3305972079</v>
       </c>
       <c r="K6" t="n">
-        <v>459959.1410495222</v>
+        <v>458984.5497898004</v>
       </c>
       <c r="L6" t="n">
-        <v>459959.1410495219</v>
+        <v>458984.5497898002</v>
       </c>
       <c r="M6" t="n">
-        <v>325158.1258156854</v>
+        <v>324183.5345559632</v>
       </c>
       <c r="N6" t="n">
-        <v>459959.1410495224</v>
+        <v>458984.5497898004</v>
       </c>
       <c r="O6" t="n">
-        <v>459959.1410495226</v>
+        <v>458984.5497898007</v>
       </c>
       <c r="P6" t="n">
-        <v>459959.1410495224</v>
+        <v>458984.5497898008</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>88.94051663994355</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>98.49966741181885</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,25 +27542,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,22 +27581,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>57.95823656922124</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>49.30418030821039</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>249.1599642490847</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>18.57297887413142</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>110.7920731867171</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>17.88169127836775</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.2585712541952</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>145.9479280535405</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>46.83478528866289</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>47.05968877614413</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31518,10 +31518,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35497,16 +35497,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>236.5687745713073</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
         <v>88.0130327850741</v>
@@ -35646,16 +35646,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>340.4953046390455</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>326.2624260966944</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36208,22 +36208,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>714.1872090116815</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
@@ -36445,22 +36445,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
-        <v>246.8854746890071</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>484.886707464902</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36919,22 +36919,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>331.0622756918206</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303338</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>534.360840609957</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>387.238612517683</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>326.0235748557309</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>369.5330580813618</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>137.9476282330536</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2523470.564213227</v>
+        <v>2528409.827062258</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>236.7541244775356</v>
       </c>
       <c r="G2" t="n">
-        <v>324.8436533808514</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -861,25 +861,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>175.7309251498739</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>164.6242057717103</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>84.11892151122133</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>37.82339983149526</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>40.91460566762558</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>60.46179076613115</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>5.983388191320708</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>101.7806877295495</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633725</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>225.9910707719766</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>66.62250434554684</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.776322813356066</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>105.0903281190979</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.482788338502</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2301,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>214.7011933078533</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>5.107731335945597</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>85.4372810299581</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>40.42818882371066</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>256.111763886877</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>101.289814786355</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>64.77871132208443</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>57.64843562452406</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>143.2925104849745</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1297.230130518035</v>
+        <v>1233.480863147839</v>
       </c>
       <c r="C2" t="n">
-        <v>928.267613577623</v>
+        <v>864.5183462074269</v>
       </c>
       <c r="D2" t="n">
-        <v>928.267613577623</v>
+        <v>864.5183462074269</v>
       </c>
       <c r="E2" t="n">
-        <v>542.4793609793787</v>
+        <v>864.5183462074269</v>
       </c>
       <c r="F2" t="n">
-        <v>535.5338602301753</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4330,10 +4330,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2057.295728843236</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1683.829970582156</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y2" t="n">
-        <v>1683.829970582156</v>
+        <v>1620.08070321196</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>373.0594214943678</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="C4" t="n">
-        <v>373.0594214943678</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>373.0594214943678</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>373.0594214943678</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>373.0594214943678</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W4" t="n">
-        <v>373.0594214943678</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X4" t="n">
-        <v>373.0594214943678</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="Y4" t="n">
-        <v>373.0594214943678</v>
+        <v>184.0273259635867</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1744.23243129246</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C5" t="n">
-        <v>1375.269914352048</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D5" t="n">
-        <v>1017.004215745297</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>631.2159631470531</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>220.2300583574456</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2557.151793961624</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2557.151793961624</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2557.151793961624</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>2557.151793961624</v>
       </c>
       <c r="W5" t="n">
-        <v>2520.971603332393</v>
+        <v>2557.151793961624</v>
       </c>
       <c r="X5" t="n">
-        <v>2520.971603332393</v>
+        <v>2557.151793961624</v>
       </c>
       <c r="Y5" t="n">
-        <v>2130.832271356581</v>
+        <v>2167.012461985812</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>261.1482364572798</v>
+        <v>140.9273907659832</v>
       </c>
       <c r="C7" t="n">
-        <v>261.1482364572798</v>
+        <v>140.9273907659832</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>140.9273907659832</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>140.9273907659832</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036446</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942404</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942404</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942404</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942404</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="W7" t="n">
-        <v>261.1482364572798</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="X7" t="n">
-        <v>261.1482364572798</v>
+        <v>322.5758555962229</v>
       </c>
       <c r="Y7" t="n">
-        <v>261.1482364572798</v>
+        <v>322.5758555962229</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>808.0839286340188</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C8" t="n">
-        <v>439.1214116936071</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D8" t="n">
-        <v>80.85571308685655</v>
+        <v>135.884402556362</v>
       </c>
       <c r="E8" t="n">
-        <v>80.85571308685655</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>73.91021233765308</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>59.98680827624398</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>59.98680827624398</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224083</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548717</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548717</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548717</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548717</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205146</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935032</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673952</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.683768698141</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>325.6879402326648</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>156.7517573047579</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036448</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036448</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629045</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5117,22 +5117,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>901.6749225845924</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1999.905696641087</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>564.1830073829216</v>
+        <v>732.3583290630959</v>
       </c>
       <c r="C13" t="n">
-        <v>395.2468244550147</v>
+        <v>563.422146135189</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>413.3055067228532</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404601</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404601</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U13" t="n">
-        <v>1046.857046486826</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V13" t="n">
-        <v>792.1725582809389</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="W13" t="n">
-        <v>792.1725582809389</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="X13" t="n">
-        <v>564.1830073829216</v>
+        <v>953.150908206626</v>
       </c>
       <c r="Y13" t="n">
-        <v>564.1830073829216</v>
+        <v>732.3583290630959</v>
       </c>
     </row>
     <row r="14">
@@ -5257,13 +5257,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
         <v>904.3190116155888</v>
@@ -5275,13 +5275,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5293,37 +5293,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,16 +5354,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M15" t="n">
         <v>1247.466478653857</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>527.3450129705744</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C16" t="n">
-        <v>527.3450129705744</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D16" t="n">
-        <v>527.3450129705744</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E16" t="n">
-        <v>527.3450129705744</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1489.041197009058</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1489.041197009058</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1265.255781798564</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>976.1271430121219</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V16" t="n">
-        <v>976.1271430121219</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W16" t="n">
-        <v>976.1271430121219</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X16" t="n">
-        <v>748.1375921141046</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="Y16" t="n">
-        <v>527.3450129705744</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="17">
@@ -5506,7 +5506,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5515,28 +5515,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5582,40 +5582,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>233.785243411008</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555207</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619849</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5676,13 +5676,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,28 +5691,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
         <v>97.21709146028584</v>
@@ -5731,70 +5731,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5819,40 +5819,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5913,13 +5913,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V22" t="n">
-        <v>755.183133481126</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W22" t="n">
-        <v>538.3132412509711</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X22" t="n">
-        <v>538.3132412509711</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>538.3132412509711</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,28 +6007,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6068,28 +6068,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6250,28 +6250,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>266.1532743881928</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1212.69597660481</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1212.69597660481</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>958.0114883989231</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>668.5943183619626</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>668.5943183619626</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y28" t="n">
-        <v>447.8017392184324</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="29">
@@ -6460,28 +6460,28 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6499,7 +6499,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
@@ -6539,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>716.8555221680796</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C31" t="n">
-        <v>547.9193392401727</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D31" t="n">
-        <v>547.9193392401727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>400.0062456577796</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1187.92115703528</v>
+        <v>1240.217519157017</v>
       </c>
       <c r="V31" t="n">
-        <v>1187.92115703528</v>
+        <v>985.5330309511296</v>
       </c>
       <c r="W31" t="n">
-        <v>898.5039869983193</v>
+        <v>696.115860914169</v>
       </c>
       <c r="X31" t="n">
-        <v>898.5039869983193</v>
+        <v>468.1263100161517</v>
       </c>
       <c r="Y31" t="n">
-        <v>898.5039869983193</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="32">
@@ -6688,19 +6688,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514085</v>
@@ -6724,7 +6724,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6776,31 +6776,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,55 +6913,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011507</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952638</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028587</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>199.5300356889273</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7189,37 +7189,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,19 +7250,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.193690363625</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>162.6501331997651</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336712</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>330.8254548799445</v>
       </c>
     </row>
     <row r="41">
@@ -7390,19 +7390,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
@@ -7414,7 +7414,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,16 +7423,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>324.3840174432676</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C43" t="n">
-        <v>155.4478345153607</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7605,16 +7605,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>1244.231782352015</v>
+        <v>1354.17636097712</v>
       </c>
       <c r="W43" t="n">
-        <v>954.8146123150548</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="X43" t="n">
-        <v>726.8250614170374</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y43" t="n">
-        <v>506.0324822735073</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="44">
@@ -7657,16 +7657,16 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783517</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8774,16 +8774,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>52.49733361305141</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599059</v>
+        <v>212.314990659903</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814591</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>306.114737013996</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>60.24628162660073</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>159.0871510434903</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>100.1880295904367</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23718,7 +23718,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>120.6193272699392</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24147,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>71.82180502873771</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24618,10 +24618,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>143.8060970315905</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>136.1102800284311</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>104.9928591992206</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>30.12558851170036</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>78.5421653955823</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>84.13511704545169</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>90.96703739368829</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25845,7 +25845,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>815867.4483931668</v>
+        <v>815867.448393167</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>815867.4483931669</v>
+        <v>815867.4483931668</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>815867.4483931665</v>
+        <v>815867.4483931666</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>815867.4483931665</v>
+        <v>815867.4483931666</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>815867.4483931665</v>
+        <v>815867.4483931668</v>
       </c>
     </row>
     <row r="12">
@@ -26316,43 +26316,43 @@
         <v>595255.2831516048</v>
       </c>
       <c r="C2" t="n">
+        <v>595255.2831516047</v>
+      </c>
+      <c r="D2" t="n">
         <v>595255.2831516048</v>
       </c>
-      <c r="D2" t="n">
-        <v>595255.2831516051</v>
-      </c>
       <c r="E2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="F2" t="n">
+        <v>566992.1366196777</v>
+      </c>
+      <c r="G2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="H2" t="n">
+        <v>566992.1366196775</v>
+      </c>
+      <c r="I2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="J2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="K2" t="n">
+        <v>566992.1366196782</v>
+      </c>
+      <c r="L2" t="n">
+        <v>566992.1366196778</v>
+      </c>
+      <c r="M2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="N2" t="n">
         <v>566992.136619678</v>
       </c>
-      <c r="F2" t="n">
-        <v>566992.1366196781</v>
-      </c>
-      <c r="G2" t="n">
-        <v>566992.1366196777</v>
-      </c>
-      <c r="H2" t="n">
-        <v>566992.136619678</v>
-      </c>
-      <c r="I2" t="n">
-        <v>566992.136619678</v>
-      </c>
-      <c r="J2" t="n">
-        <v>566992.1366196781</v>
-      </c>
-      <c r="K2" t="n">
-        <v>566992.1366196778</v>
-      </c>
-      <c r="L2" t="n">
-        <v>566992.1366196775</v>
-      </c>
-      <c r="M2" t="n">
-        <v>566992.1366196778</v>
-      </c>
-      <c r="N2" t="n">
-        <v>566992.1366196778</v>
-      </c>
       <c r="O2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196782</v>
       </c>
       <c r="P2" t="n">
         <v>566992.1366196781</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143914</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
@@ -26475,40 +26475,40 @@
         <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-234346.6323775718</v>
+        <v>-234346.6323775717</v>
       </c>
       <c r="C6" t="n">
-        <v>355621.2468369727</v>
+        <v>355621.2468369726</v>
       </c>
       <c r="D6" t="n">
-        <v>355621.246836973</v>
+        <v>355621.2468369728</v>
       </c>
       <c r="E6" t="n">
-        <v>-66175.4866870952</v>
+        <v>-65298.35455334654</v>
       </c>
       <c r="F6" t="n">
-        <v>458984.5497898008</v>
+        <v>459861.6819235497</v>
       </c>
       <c r="G6" t="n">
-        <v>458984.5497898003</v>
+        <v>459861.68192355</v>
       </c>
       <c r="H6" t="n">
-        <v>458984.5497898007</v>
+        <v>459861.6819235497</v>
       </c>
       <c r="I6" t="n">
-        <v>458984.5497898007</v>
+        <v>459861.6819235504</v>
       </c>
       <c r="J6" t="n">
-        <v>282561.3305972079</v>
+        <v>283438.4627309569</v>
       </c>
       <c r="K6" t="n">
-        <v>458984.5497898004</v>
+        <v>459861.6819235504</v>
       </c>
       <c r="L6" t="n">
-        <v>458984.5497898002</v>
+        <v>459861.6819235499</v>
       </c>
       <c r="M6" t="n">
-        <v>324183.5345559632</v>
+        <v>325060.6666897128</v>
       </c>
       <c r="N6" t="n">
-        <v>458984.5497898004</v>
+        <v>459861.6819235501</v>
       </c>
       <c r="O6" t="n">
-        <v>458984.5497898007</v>
+        <v>459861.6819235505</v>
       </c>
       <c r="P6" t="n">
-        <v>458984.5497898008</v>
+        <v>459861.6819235503</v>
       </c>
     </row>
   </sheetData>
@@ -26737,46 +26737,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26795,10 +26795,10 @@
         <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26825,7 +26825,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>170.1219212641758</v>
       </c>
       <c r="G2" t="n">
-        <v>88.94051663994355</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>38.52630155726084</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,25 +27581,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>49.30418030821039</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>249.1599642490847</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>90.2967912977502</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>110.7920731867171</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>104.5064423553057</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>321.4685793061306</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>145.9479280535405</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>46.83478528866289</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28110,7 +28110,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-8.463989355239118e-13</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28262,7 +28262,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>5.090328158985358e-12</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31518,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.145920326212</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541597</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415081</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330527</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110547</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700203</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
